--- a/template-os.xlsx
+++ b/template-os.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26404"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94F26F0A-5B0C-492F-8534-8DD95F412D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9CDC38D-3DBE-4A4D-A308-7266490FCC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>DATA</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -490,7 +496,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -620,9 +626,29 @@
         <v>13</v>
       </c>
     </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3">
+        <v>45022</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="7">
+        <v>100</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="8" spans="1:7">
       <c r="G8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
